--- a/afar_project/csv_path/excel_files/asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/asset_schedule.xlsx
@@ -628,16 +628,16 @@
         <v>3111072.93</v>
       </c>
       <c r="D4" t="n">
-        <v>4264</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3115336.93</v>
+        <v>3111072.93</v>
       </c>
       <c r="F4" t="n">
         <v>1367021.79</v>
       </c>
       <c r="G4" t="n">
-        <v>1748315.14</v>
+        <v>1744051.14</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -648,13 +648,13 @@
         <v>1235426.37</v>
       </c>
       <c r="J4" t="n">
-        <v>174831.51</v>
+        <v>174405.11</v>
       </c>
       <c r="K4" t="n">
         <v>426448.72</v>
       </c>
       <c r="L4" t="n">
-        <v>983809.16</v>
+        <v>983382.76</v>
       </c>
       <c r="M4" t="n">
         <v>2587.59</v>
@@ -663,7 +663,7 @@
         <v>2587.59</v>
       </c>
       <c r="O4" t="n">
-        <v>761918.39</v>
+        <v>758080.79</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -684,16 +684,16 @@
         <v>334523</v>
       </c>
       <c r="D5" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>334635</v>
+        <v>334523</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>334635</v>
+        <v>334523</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -704,13 +704,13 @@
         <v>236352.14</v>
       </c>
       <c r="J5" t="n">
-        <v>47805</v>
+        <v>47789</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>284157.14</v>
+        <v>284141.14</v>
       </c>
       <c r="M5" t="n">
         <v>0.03</v>
@@ -719,7 +719,7 @@
         <v>0.03</v>
       </c>
       <c r="O5" t="n">
-        <v>50477.83</v>
+        <v>50381.83</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>

--- a/afar_project/csv_path/excel_files/asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/asset_schedule.xlsx
@@ -545,13 +545,13 @@
         <v>2000759.78</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>213389.48</v>
+        <v>213389.45</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -601,13 +601,13 @@
         <v>1553714.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1200.06</v>
+        <v>0.04</v>
       </c>
       <c r="N3" t="n">
-        <v>1900.06</v>
+        <v>1900.1</v>
       </c>
       <c r="O3" t="n">
-        <v>360689.61</v>
+        <v>360689.57</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
         <v>983362.36</v>
       </c>
       <c r="M4" t="n">
-        <v>2587.59</v>
+        <v>1950</v>
       </c>
       <c r="N4" t="n">
-        <v>2587.59</v>
+        <v>4537.59</v>
       </c>
       <c r="O4" t="n">
-        <v>758033.1899999999</v>
+        <v>756083.1899999999</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>284141.14</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0.03</v>

--- a/afar_project/csv_path/excel_files/asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/asset_schedule.xlsx
@@ -513,19 +513,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2214149.3</v>
+        <v>2334149.3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2214149.3</v>
+        <v>2334149.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2214149.3</v>
+        <v>2334149.3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -536,13 +536,13 @@
         <v>1761181.52</v>
       </c>
       <c r="J2" t="n">
-        <v>239578.26</v>
+        <v>251578.26</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2000759.78</v>
+        <v>2012759.78</v>
       </c>
       <c r="M2" t="n">
         <v>0.03</v>
@@ -551,7 +551,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>213389.45</v>
+        <v>321389.45</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>

--- a/afar_project/csv_path/excel_files/asset_schedule.xlsx
+++ b/afar_project/csv_path/excel_files/asset_schedule.xlsx
@@ -513,19 +513,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2334149.3</v>
+        <v>187251</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2334149.3</v>
+        <v>187251</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2334149.3</v>
+        <v>187251</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1761181.52</v>
+        <v>146396.8</v>
       </c>
       <c r="J2" t="n">
-        <v>251578.26</v>
+        <v>19246.7</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2012759.78</v>
+        <v>165643.5</v>
       </c>
       <c r="M2" t="n">
         <v>0.03</v>
@@ -551,7 +551,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>321389.45</v>
+        <v>21607.43</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3602486</v>
+        <v>253194</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3602486</v>
+        <v>253194</v>
       </c>
       <c r="F3" t="n">
-        <v>1686182</v>
+        <v>12770</v>
       </c>
       <c r="G3" t="n">
-        <v>1916304</v>
+        <v>240424</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2115199.61</v>
+        <v>171509.43</v>
       </c>
       <c r="J3" t="n">
-        <v>273757.72</v>
+        <v>34346.32</v>
       </c>
       <c r="K3" t="n">
-        <v>835243</v>
+        <v>6810.56</v>
       </c>
       <c r="L3" t="n">
-        <v>1553714.33</v>
+        <v>199045.19</v>
       </c>
       <c r="M3" t="n">
         <v>0.04</v>
@@ -607,7 +607,7 @@
         <v>1900.1</v>
       </c>
       <c r="O3" t="n">
-        <v>360689.57</v>
+        <v>39478.71</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3111004.93</v>
+        <v>330424</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3111004.93</v>
+        <v>330424</v>
       </c>
       <c r="F4" t="n">
-        <v>1367021.79</v>
+        <v>75302</v>
       </c>
       <c r="G4" t="n">
-        <v>1743983.14</v>
+        <v>255122</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1235412.77</v>
+        <v>141436.5</v>
       </c>
       <c r="J4" t="n">
-        <v>174398.31</v>
+        <v>25512.2</v>
       </c>
       <c r="K4" t="n">
-        <v>426448.72</v>
+        <v>23108.3</v>
       </c>
       <c r="L4" t="n">
-        <v>983362.36</v>
+        <v>143840.4</v>
       </c>
       <c r="M4" t="n">
         <v>1950</v>
@@ -663,7 +663,7 @@
         <v>4537.59</v>
       </c>
       <c r="O4" t="n">
-        <v>756083.1899999999</v>
+        <v>106744.01</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -681,19 +681,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>334523</v>
+        <v>27398</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>334523</v>
+        <v>27398</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>334523</v>
+        <v>27398</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>236352.14</v>
+        <v>17934</v>
       </c>
       <c r="J5" t="n">
-        <v>47789</v>
+        <v>3914</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>284141.14</v>
+        <v>21848</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0.03</v>
       </c>
       <c r="O5" t="n">
-        <v>50381.83</v>
+        <v>5549.97</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21671646</v>
+        <v>27025</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>21671646</v>
+        <v>27025</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21671646</v>
+        <v>27025</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9831338.699999999</v>
+        <v>8592.200000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>2167164.6</v>
+        <v>2702.5</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>11998503.3</v>
+        <v>11294.7</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>9673142.699999999</v>
+        <v>15730.3</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -793,19 +793,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>549298.2</v>
+        <v>54936</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>549298.2</v>
+        <v>54936</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>549298.2</v>
+        <v>54936</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>54929.84</v>
+        <v>5493.6</v>
       </c>
       <c r="J7" t="n">
-        <v>27464.92</v>
+        <v>2746.8</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>82394.75999999999</v>
+        <v>8240.4</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>466903.44</v>
+        <v>46695.6</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -849,19 +849,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>718355</v>
+        <v>59512</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>718355</v>
+        <v>59512</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>718355</v>
+        <v>59512</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -869,16 +869,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>95780.64</v>
+        <v>7934.92</v>
       </c>
       <c r="J8" t="n">
-        <v>47890.32</v>
+        <v>3967.46</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>143670.96</v>
+        <v>11902.38</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>574684.04</v>
+        <v>47609.62</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -905,19 +905,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>66900</v>
+        <v>27584</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>66900</v>
+        <v>27584</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>66900</v>
+        <v>27584</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8920</v>
+        <v>3677.88</v>
       </c>
       <c r="J9" t="n">
-        <v>4460</v>
+        <v>1838.94</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>13380</v>
+        <v>5516.82</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>53520</v>
+        <v>22067.18</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -961,19 +961,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>607855</v>
+        <v>109019</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>607855</v>
+        <v>109019</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>607855</v>
+        <v>109019</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>60785.5</v>
+        <v>10901.9</v>
       </c>
       <c r="J10" t="n">
-        <v>30392.75</v>
+        <v>5450.95</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>91178.25</v>
+        <v>16352.85</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>516676.75</v>
+        <v>92666.14999999999</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1017,19 +1017,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1402841.25</v>
+        <v>212060</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1402841.25</v>
+        <v>212060</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1402841.25</v>
+        <v>212060</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>187045.52</v>
+        <v>28274.64</v>
       </c>
       <c r="J11" t="n">
-        <v>93522.75999999999</v>
+        <v>14137.32</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>280568.28</v>
+        <v>42411.96</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1122272.97</v>
+        <v>169648.04</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1073,19 +1073,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>375968.75</v>
+        <v>28060</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>375968.75</v>
+        <v>28060</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>375968.75</v>
+        <v>28060</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1093,16 +1093,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>75193.75999999999</v>
+        <v>5612</v>
       </c>
       <c r="J12" t="n">
-        <v>37596.88</v>
+        <v>2806</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>112790.64</v>
+        <v>8418</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>263178.11</v>
+        <v>19642</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1129,19 +1129,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4733279.25</v>
+        <v>178295</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4733279.25</v>
+        <v>178295</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4733279.25</v>
+        <v>178295</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>473327.98</v>
+        <v>17829.5</v>
       </c>
       <c r="J13" t="n">
-        <v>236663.99</v>
+        <v>8914.75</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>709991.97</v>
+        <v>26744.25</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4023287.28</v>
+        <v>151550.75</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1185,19 +1185,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4771077.5</v>
+        <v>149212</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>4771077.5</v>
+        <v>149212</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4771077.5</v>
+        <v>149212</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1205,16 +1205,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>636143.62</v>
+        <v>19894.94</v>
       </c>
       <c r="J14" t="n">
-        <v>318071.81</v>
+        <v>9947.469999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>954215.4300000001</v>
+        <v>29842.41</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3816862.07</v>
+        <v>119369.59</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
